--- a/src/main/resources/archetype-resources/src/test/resources/data/in/playToLogoGame.xlsx
+++ b/src/main/resources/archetype-resources/src/test/resources/data/in/playToLogoGame.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Peter</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>heineken</t>
-  </si>
-  <si>
-    <t>burgerking</t>
   </si>
   <si>
     <t>Result</t>
@@ -91,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,6 +259,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -309,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,7 +344,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
